--- a/crm-vtiger-fw-A12/src/test/resources/testScriptData.xlsx
+++ b/crm-vtiger-fw-A12/src/test/resources/testScriptData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A12" sheetId="1" r:id="rId1"/>
     <sheet name="opportunities" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Organization" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -582,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -656,7 +656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
